--- a/DbLayouts/L4-批次作業/BankRemit.xlsx
+++ b/DbLayouts/L4-批次作業/BankRemit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659EA743-AD11-4B1B-84EF-5DE1E2B179CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B37CAB-BEC1-4CE1-A8F7-E6AFFF346CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,16 +497,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>"LN + 傳票批號 + 匯款批號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode:DrawdownCode2
-01:整批匯款
-02:單筆匯款
+01:撥款(整批匯款)
+02:撥款(單筆匯款)
 04:退款台新(存款憑條)
 05:退款他行(整批匯款)
 11:退款新光(存款憑條)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"LN + 傳票批號 + 匯款批號</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="97.2">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="81">
